--- a/Client/Assets/Editor/Excels/LevelResultInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelResultInfo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Work]\Forgetful_Cupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A7A35-9F51-4967-8A09-38513D565D64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{823B1FA6-DF90-4F25-A0F7-B93CF468B779}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>关卡编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应结局编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应结局名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,38 +42,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单恋的终结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气是一切的开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒的友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐行渐远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功结局编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败结局编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>过关值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单恋的终结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气是一切的开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒的友谊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渐行渐远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3727B6-10C7-4F5B-B173-45BF46385CD7}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,37 +484,51 @@
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -525,11 +542,18 @@
         <v>-1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -543,11 +567,18 @@
         <v>-1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -558,102 +589,94 @@
         <v>55</v>
       </c>
       <c r="D5" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>106</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>103</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>104</v>
-      </c>
-      <c r="B7" s="3">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>105</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>106</v>
-      </c>
-      <c r="B9" s="3">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Editor/Excels/LevelResultInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelResultInfo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Work]\Forgetful_Cupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D303A-88AF-4E68-81C0-5F8BB39273B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,7 +469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -482,6 +483,8 @@
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">

--- a/Client/Assets/Editor/Excels/LevelResultInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelResultInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D303A-88AF-4E68-81C0-5F8BB39273B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B05A78-2CFA-4BE8-B5D1-9E10E37BC373}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>关卡编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对应结局名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应结局图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,56 +474,42 @@
     <col min="2" max="3" width="9.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -545,18 +523,16 @@
         <v>-1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -570,18 +546,16 @@
         <v>-1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -595,18 +569,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>104</v>
       </c>
@@ -620,18 +592,16 @@
         <v>-1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>105</v>
       </c>
@@ -645,18 +615,16 @@
         <v>-1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>106</v>
       </c>
@@ -670,16 +638,14 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
